--- a/TestComponents/TestSets/Residues/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/Residues/FieldConfigs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\SVSModelBuildDeploy\TestComponents\TestSets\Residues\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\TestComponents\TestSets\Residues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A202DAF0-DB46-47EB-8CB1-3A627ACB2BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6869A4-C1D6-440F-93C9-638BE2205BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0D9F3F3-C1B3-4B79-AF5D-93A117BC34BF}"/>
   </bookViews>
@@ -137,9 +137,6 @@
     <t>TestResidue45</t>
   </si>
   <si>
-    <t>PriorSaleableYield</t>
-  </si>
-  <si>
     <t>PriorFieldLoss</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>CurrentCropNameFull</t>
   </si>
   <si>
-    <t>CurrentSaleableYield</t>
-  </si>
-  <si>
     <t>CurrentFieldLoss</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>Oat Fodder General</t>
   </si>
   <si>
-    <t>FollowingSaleableYield</t>
-  </si>
-  <si>
     <t>FollowingFieldLoss</t>
   </si>
   <si>
@@ -270,6 +261,15 @@
   </si>
   <si>
     <t>Following</t>
+  </si>
+  <si>
+    <t>PriorFieldYield</t>
+  </si>
+  <si>
+    <t>CurrentFieldYield</t>
+  </si>
+  <si>
+    <t>FollowingFieldYield</t>
   </si>
 </sst>
 </file>
@@ -702,10 +702,10 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14:L14"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +716,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -751,40 +751,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1293,10 +1293,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
         <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -1332,7 +1332,7 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1368,7 +1368,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1404,7 +1404,7 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -1440,7 +1440,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="5">
         <v>44831</v>
@@ -1476,43 +1476,43 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5">
         <v>44951</v>
@@ -1548,115 +1548,115 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -1691,10 +1691,10 @@
     </row>
     <row r="28" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="C28" s="3">
         <v>8</v>
@@ -1730,7 +1730,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1766,7 +1766,7 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1802,7 +1802,7 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -1838,7 +1838,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" s="5">
         <v>45026</v>
@@ -1874,43 +1874,43 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="5">
         <v>45142</v>
@@ -1946,153 +1946,153 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
         <v>77</v>
-      </c>
-      <c r="B39" t="s">
-        <v>60</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -2128,7 +2128,7 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2164,7 +2164,7 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2200,7 +2200,7 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2236,7 +2236,7 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C43" s="5">
         <v>45170</v>
@@ -2272,43 +2272,43 @@
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C45" s="5">
         <v>45200</v>
@@ -2344,109 +2344,109 @@
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/TestComponents/TestSets/Residues/FieldConfigs.xlsx
+++ b/TestComponents/TestSets/Residues/FieldConfigs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\TestComponents\TestSets\Residues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A76A22B-C984-4313-AAA4-335834E99F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14826755-3A35-4431-B953-CE9B7172C8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0D9F3F3-C1B3-4B79-AF5D-93A117BC34BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0D9F3F3-C1B3-4B79-AF5D-93A117BC34BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>SampleDepth</t>
   </si>
   <si>
-    <t>0-30cm</t>
-  </si>
-  <si>
     <t>PMN</t>
   </si>
   <si>
@@ -263,7 +260,10 @@
     <t>Rocks</t>
   </si>
   <si>
-    <t>Silt loam</t>
+    <t>Silt</t>
+  </si>
+  <si>
+    <t>Top30cm</t>
   </si>
 </sst>
 </file>
@@ -397,9 +397,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -437,7 +437,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -543,7 +543,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -685,7 +685,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -699,18 +699,18 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:L6"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -743,45 +743,45 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>10</v>
@@ -817,82 +817,82 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -925,46 +925,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -997,10 +997,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1033,156 +1033,156 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1215,10 +1215,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1287,10 +1287,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -1323,10 +1323,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5">
         <v>44831</v>
@@ -1359,46 +1359,46 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="5">
         <v>44951</v>
@@ -1431,156 +1431,156 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="3">
         <v>8</v>
@@ -1613,10 +1613,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1649,10 +1649,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -1721,10 +1721,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="5">
         <v>45026</v>
@@ -1757,46 +1757,46 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="5">
         <v>45142</v>
@@ -1829,156 +1829,156 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>10</v>
@@ -2011,10 +2011,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2119,10 +2119,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="5">
         <v>45170</v>
@@ -2155,46 +2155,46 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="5">
         <v>45200</v>
@@ -2227,112 +2227,112 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
       <c r="B45" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
